--- a/Day 4 Homework- Web Scraping for Tech Job Postings/jobData.xlsx
+++ b/Day 4 Homework- Web Scraping for Tech Job Postings/jobData.xlsx
@@ -397,20 +397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>TITLE</v>
+        <v>Job Title</v>
       </c>
       <c r="B1" t="str">
-        <v>COMPANY</v>
+        <v>Company Name</v>
       </c>
       <c r="C1" t="str">
-        <v>LOCATION</v>
+        <v>Location</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Posted Date</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
@@ -425,6 +428,9 @@
         Stewartbury, AA
       </v>
       </c>
+      <c r="D2" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
@@ -438,6 +444,9 @@
         Christopherville, AA
       </v>
       </c>
+      <c r="D3" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
@@ -451,6 +460,9 @@
         Port Ericaburgh, AA
       </v>
       </c>
+      <c r="D4" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
@@ -464,6 +476,9 @@
         East Seanview, AP
       </v>
       </c>
+      <c r="D5" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
@@ -477,6 +492,9 @@
         North Jamieview, AP
       </v>
       </c>
+      <c r="D6" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
@@ -490,6 +508,9 @@
         Davidville, AP
       </v>
       </c>
+      <c r="D7" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
@@ -503,6 +524,9 @@
         South Christopher, AE
       </v>
       </c>
+      <c r="D8" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
@@ -516,6 +540,9 @@
         Port Jonathan, AE
       </v>
       </c>
+      <c r="D9" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
@@ -529,6 +556,9 @@
         Osbornetown, AE
       </v>
       </c>
+      <c r="D10" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
@@ -542,6 +572,9 @@
         Scotttown, AP
       </v>
       </c>
+      <c r="D11" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
@@ -555,6 +588,9 @@
         Ericberg, AE
       </v>
       </c>
+      <c r="D12" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str">
@@ -568,6 +604,9 @@
         Ramireztown, AE
       </v>
       </c>
+      <c r="D13" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str">
@@ -581,6 +620,9 @@
         Figueroaview, AA
       </v>
       </c>
+      <c r="D14" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
@@ -594,6 +636,9 @@
         Kelseystad, AA
       </v>
       </c>
+      <c r="D15" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
@@ -607,6 +652,9 @@
         Williamsburgh, AE
       </v>
       </c>
+      <c r="D16" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
@@ -620,6 +668,9 @@
         Mitchellburgh, AE
       </v>
       </c>
+      <c r="D17" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
@@ -633,6 +684,9 @@
         West Jessicabury, AA
       </v>
       </c>
+      <c r="D18" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str">
@@ -646,6 +700,9 @@
         Maloneshire, AE
       </v>
       </c>
+      <c r="D19" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="20" xml:space="preserve">
       <c r="A20" t="str">
@@ -659,6 +716,9 @@
         Johnsonton, AA
       </v>
       </c>
+      <c r="D20" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
@@ -672,6 +732,9 @@
         South Davidtown, AP
       </v>
       </c>
+      <c r="D21" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
@@ -685,6 +748,9 @@
         Port Sara, AE
       </v>
       </c>
+      <c r="D22" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
@@ -698,6 +764,9 @@
         Marktown, AA
       </v>
       </c>
+      <c r="D23" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
@@ -711,6 +780,9 @@
         Laurenland, AE
       </v>
       </c>
+      <c r="D24" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
@@ -724,6 +796,9 @@
         Lauraton, AP
       </v>
       </c>
+      <c r="D25" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
@@ -737,6 +812,9 @@
         South Tammyberg, AP
       </v>
       </c>
+      <c r="D26" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
@@ -750,6 +828,9 @@
         North Brandonville, AP
       </v>
       </c>
+      <c r="D27" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="28" xml:space="preserve">
       <c r="A28" t="str">
@@ -763,6 +844,9 @@
         Port Robertfurt, AA
       </v>
       </c>
+      <c r="D28" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
@@ -776,6 +860,9 @@
         Burnettbury, AE
       </v>
       </c>
+      <c r="D29" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
@@ -789,6 +876,9 @@
         Herbertside, AA
       </v>
       </c>
+      <c r="D30" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
@@ -802,6 +892,9 @@
         Christopherport, AP
       </v>
       </c>
+      <c r="D31" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
@@ -815,6 +908,9 @@
         West Victor, AE
       </v>
       </c>
+      <c r="D32" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="33" xml:space="preserve">
       <c r="A33" t="str">
@@ -828,6 +924,9 @@
         Port Aaron, AP
       </v>
       </c>
+      <c r="D33" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="34" xml:space="preserve">
       <c r="A34" t="str">
@@ -841,6 +940,9 @@
         Loribury, AA
       </v>
       </c>
+      <c r="D34" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="35" xml:space="preserve">
       <c r="A35" t="str">
@@ -854,6 +956,9 @@
         Angelastad, AP
       </v>
       </c>
+      <c r="D35" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="36" xml:space="preserve">
       <c r="A36" t="str">
@@ -867,6 +972,9 @@
         Larrytown, AE
       </v>
       </c>
+      <c r="D36" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="37" xml:space="preserve">
       <c r="A37" t="str">
@@ -880,6 +988,9 @@
         West Colin, AP
       </v>
       </c>
+      <c r="D37" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="38" xml:space="preserve">
       <c r="A38" t="str">
@@ -893,6 +1004,9 @@
         West Stephanie, AP
       </v>
       </c>
+      <c r="D38" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="39" xml:space="preserve">
       <c r="A39" t="str">
@@ -906,6 +1020,9 @@
         Laurentown, AP
       </v>
       </c>
+      <c r="D39" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="40" xml:space="preserve">
       <c r="A40" t="str">
@@ -919,6 +1036,9 @@
         Wrightberg, AP
       </v>
       </c>
+      <c r="D40" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="41" xml:space="preserve">
       <c r="A41" t="str">
@@ -932,6 +1052,9 @@
         Alberttown, AE
       </v>
       </c>
+      <c r="D41" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="42" xml:space="preserve">
       <c r="A42" t="str">
@@ -945,6 +1068,9 @@
         Brockburgh, AE
       </v>
       </c>
+      <c r="D42" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="43" xml:space="preserve">
       <c r="A43" t="str">
@@ -958,6 +1084,9 @@
         North Jason, AE
       </v>
       </c>
+      <c r="D43" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="44" xml:space="preserve">
       <c r="A44" t="str">
@@ -971,6 +1100,9 @@
         Arnoldhaven, AE
       </v>
       </c>
+      <c r="D44" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="45" xml:space="preserve">
       <c r="A45" t="str">
@@ -984,6 +1116,9 @@
         Lake Destiny, AP
       </v>
       </c>
+      <c r="D45" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="46" xml:space="preserve">
       <c r="A46" t="str">
@@ -997,6 +1132,9 @@
         South Timothyburgh, AP
       </v>
       </c>
+      <c r="D46" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="47" xml:space="preserve">
       <c r="A47" t="str">
@@ -1010,6 +1148,9 @@
         New Jimmyton, AE
       </v>
       </c>
+      <c r="D47" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="48" xml:space="preserve">
       <c r="A48" t="str">
@@ -1023,6 +1164,9 @@
         New Lucasbury, AP
       </v>
       </c>
+      <c r="D48" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="49" xml:space="preserve">
       <c r="A49" t="str">
@@ -1036,6 +1180,9 @@
         Port Cory, AE
       </v>
       </c>
+      <c r="D49" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="50" xml:space="preserve">
       <c r="A50" t="str">
@@ -1049,6 +1196,9 @@
         Gileston, AA
       </v>
       </c>
+      <c r="D50" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="51" xml:space="preserve">
       <c r="A51" t="str">
@@ -1062,6 +1212,9 @@
         Cindyshire, AA
       </v>
       </c>
+      <c r="D51" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="52" xml:space="preserve">
       <c r="A52" t="str">
@@ -1075,6 +1228,9 @@
         East Michaelfort, AA
       </v>
       </c>
+      <c r="D52" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="53" xml:space="preserve">
       <c r="A53" t="str">
@@ -1088,6 +1244,9 @@
         Joybury, AE
       </v>
       </c>
+      <c r="D53" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="54" xml:space="preserve">
       <c r="A54" t="str">
@@ -1101,6 +1260,9 @@
         Emmatown, AE
       </v>
       </c>
+      <c r="D54" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="55" xml:space="preserve">
       <c r="A55" t="str">
@@ -1114,6 +1276,9 @@
         Colehaven, AP
       </v>
       </c>
+      <c r="D55" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="56" xml:space="preserve">
       <c r="A56" t="str">
@@ -1127,6 +1292,9 @@
         Port Coryton, AE
       </v>
       </c>
+      <c r="D56" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="57" xml:space="preserve">
       <c r="A57" t="str">
@@ -1140,6 +1308,9 @@
         Amyborough, AA
       </v>
       </c>
+      <c r="D57" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="58" xml:space="preserve">
       <c r="A58" t="str">
@@ -1153,6 +1324,9 @@
         Reynoldsville, AA
       </v>
       </c>
+      <c r="D58" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="59" xml:space="preserve">
       <c r="A59" t="str">
@@ -1166,6 +1340,9 @@
         Port Billy, AP
       </v>
       </c>
+      <c r="D59" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="60" xml:space="preserve">
       <c r="A60" t="str">
@@ -1179,6 +1356,9 @@
         Adamburgh, AA
       </v>
       </c>
+      <c r="D60" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="61" xml:space="preserve">
       <c r="A61" t="str">
@@ -1192,6 +1372,9 @@
         Wilsonmouth, AA
       </v>
       </c>
+      <c r="D61" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="62" xml:space="preserve">
       <c r="A62" t="str">
@@ -1205,6 +1388,9 @@
         South Kimberly, AA
       </v>
       </c>
+      <c r="D62" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="63" xml:space="preserve">
       <c r="A63" t="str">
@@ -1218,6 +1404,9 @@
         Benjaminland, AP
       </v>
       </c>
+      <c r="D63" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="64" xml:space="preserve">
       <c r="A64" t="str">
@@ -1231,6 +1420,9 @@
         Zacharyport, AA
       </v>
       </c>
+      <c r="D64" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="65" xml:space="preserve">
       <c r="A65" t="str">
@@ -1244,6 +1436,9 @@
         Port Devonville, AE
       </v>
       </c>
+      <c r="D65" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="66" xml:space="preserve">
       <c r="A66" t="str">
@@ -1257,6 +1452,9 @@
         East Thomas, AE
       </v>
       </c>
+      <c r="D66" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="67" xml:space="preserve">
       <c r="A67" t="str">
@@ -1270,6 +1468,9 @@
         New Jeffrey, AP
       </v>
       </c>
+      <c r="D67" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="68" xml:space="preserve">
       <c r="A68" t="str">
@@ -1283,6 +1484,9 @@
         Davidside, AA
       </v>
       </c>
+      <c r="D68" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="69" xml:space="preserve">
       <c r="A69" t="str">
@@ -1296,6 +1500,9 @@
         Jamesville, AA
       </v>
       </c>
+      <c r="D69" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="70" xml:space="preserve">
       <c r="A70" t="str">
@@ -1309,6 +1516,9 @@
         New Kelly, AP
       </v>
       </c>
+      <c r="D70" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="71" xml:space="preserve">
       <c r="A71" t="str">
@@ -1322,6 +1532,9 @@
         Lake Antonio, AA
       </v>
       </c>
+      <c r="D71" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="72" xml:space="preserve">
       <c r="A72" t="str">
@@ -1335,6 +1548,9 @@
         New Elizabethside, AA
       </v>
       </c>
+      <c r="D72" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="73" xml:space="preserve">
       <c r="A73" t="str">
@@ -1348,6 +1564,9 @@
         Millsbury, AE
       </v>
       </c>
+      <c r="D73" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="74" xml:space="preserve">
       <c r="A74" t="str">
@@ -1361,6 +1580,9 @@
         Lloydton, AP
       </v>
       </c>
+      <c r="D74" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="75" xml:space="preserve">
       <c r="A75" t="str">
@@ -1374,6 +1596,9 @@
         Port Jeremy, AA
       </v>
       </c>
+      <c r="D75" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="76" xml:space="preserve">
       <c r="A76" t="str">
@@ -1387,6 +1612,9 @@
         New Elizabethtown, AA
       </v>
       </c>
+      <c r="D76" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="77" xml:space="preserve">
       <c r="A77" t="str">
@@ -1400,6 +1628,9 @@
         Charlesstad, AE
       </v>
       </c>
+      <c r="D77" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="78" xml:space="preserve">
       <c r="A78" t="str">
@@ -1413,6 +1644,9 @@
         Josephbury, AE
       </v>
       </c>
+      <c r="D78" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="79" xml:space="preserve">
       <c r="A79" t="str">
@@ -1426,6 +1660,9 @@
         Seanfurt, AA
       </v>
       </c>
+      <c r="D79" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="80" xml:space="preserve">
       <c r="A80" t="str">
@@ -1439,6 +1676,9 @@
         Williambury, AA
       </v>
       </c>
+      <c r="D80" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="81" xml:space="preserve">
       <c r="A81" t="str">
@@ -1452,6 +1692,9 @@
         South Jorgeside, AP
       </v>
       </c>
+      <c r="D81" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="82" xml:space="preserve">
       <c r="A82" t="str">
@@ -1465,6 +1708,9 @@
         Robertborough, AP
       </v>
       </c>
+      <c r="D82" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="83" xml:space="preserve">
       <c r="A83" t="str">
@@ -1478,6 +1724,9 @@
         South Saratown, AP
       </v>
       </c>
+      <c r="D83" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="84" xml:space="preserve">
       <c r="A84" t="str">
@@ -1491,6 +1740,9 @@
         Hullview, AA
       </v>
       </c>
+      <c r="D84" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="85" xml:space="preserve">
       <c r="A85" t="str">
@@ -1504,6 +1756,9 @@
         Philipland, AP
       </v>
       </c>
+      <c r="D85" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="86" xml:space="preserve">
       <c r="A86" t="str">
@@ -1517,6 +1772,9 @@
         North Patty, AE
       </v>
       </c>
+      <c r="D86" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="87" xml:space="preserve">
       <c r="A87" t="str">
@@ -1530,6 +1788,9 @@
         North Stephen, AE
       </v>
       </c>
+      <c r="D87" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="88" xml:space="preserve">
       <c r="A88" t="str">
@@ -1543,6 +1804,9 @@
         Stevensland, AP
       </v>
       </c>
+      <c r="D88" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="89" xml:space="preserve">
       <c r="A89" t="str">
@@ -1556,6 +1820,9 @@
         Reyesstad, AE
       </v>
       </c>
+      <c r="D89" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="90" xml:space="preserve">
       <c r="A90" t="str">
@@ -1569,6 +1836,9 @@
         Bellberg, AP
       </v>
       </c>
+      <c r="D90" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="91" xml:space="preserve">
       <c r="A91" t="str">
@@ -1582,6 +1852,9 @@
         North Johnland, AE
       </v>
       </c>
+      <c r="D91" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="92" xml:space="preserve">
       <c r="A92" t="str">
@@ -1595,6 +1868,9 @@
         Martinezburgh, AE
       </v>
       </c>
+      <c r="D92" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="93" xml:space="preserve">
       <c r="A93" t="str">
@@ -1608,6 +1884,9 @@
         Joshuatown, AE
       </v>
       </c>
+      <c r="D93" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="94" xml:space="preserve">
       <c r="A94" t="str">
@@ -1621,6 +1900,9 @@
         West Ericstad, AA
       </v>
       </c>
+      <c r="D94" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="95" xml:space="preserve">
       <c r="A95" t="str">
@@ -1634,6 +1916,9 @@
         Tuckertown, AE
       </v>
       </c>
+      <c r="D95" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="96" xml:space="preserve">
       <c r="A96" t="str">
@@ -1647,6 +1932,9 @@
         Perezton, AE
       </v>
       </c>
+      <c r="D96" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="97" xml:space="preserve">
       <c r="A97" t="str">
@@ -1660,6 +1948,9 @@
         Lake Abigail, AE
       </v>
       </c>
+      <c r="D97" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="98" xml:space="preserve">
       <c r="A98" t="str">
@@ -1673,6 +1964,9 @@
         Jacobshire, AP
       </v>
       </c>
+      <c r="D98" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="99" xml:space="preserve">
       <c r="A99" t="str">
@@ -1686,6 +1980,9 @@
         Port Susan, AE
       </v>
       </c>
+      <c r="D99" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="100" xml:space="preserve">
       <c r="A100" t="str">
@@ -1699,6 +1996,9 @@
         North Tiffany, AA
       </v>
       </c>
+      <c r="D100" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
     <row r="101" xml:space="preserve">
       <c r="A101" t="str">
@@ -1712,10 +2012,13 @@
         Michelleville, AP
       </v>
       </c>
+      <c r="D101" t="str">
+        <v>2021-04-08</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D101"/>
   </ignoredErrors>
 </worksheet>
 </file>